--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btc-Erbb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Btc-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,10 +546,10 @@
         <v>0.19286</v>
       </c>
       <c r="I2">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J2">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.1122635</v>
+        <v>4.138389</v>
       </c>
       <c r="N2">
-        <v>6.224527</v>
+        <v>8.276778</v>
       </c>
       <c r="O2">
-        <v>0.2822077032432218</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P2">
-        <v>0.2312074682901326</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q2">
-        <v>0.2000770462033334</v>
+        <v>0.26604323418</v>
       </c>
       <c r="R2">
-        <v>1.20046227722</v>
+        <v>1.59625940508</v>
       </c>
       <c r="S2">
-        <v>0.003099864936804471</v>
+        <v>0.00226760010770945</v>
       </c>
       <c r="T2">
-        <v>0.003788683548281449</v>
+        <v>0.002974422537523844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +608,10 @@
         <v>0.19286</v>
       </c>
       <c r="I3">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J3">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.013819333333334</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N3">
-        <v>9.041458</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O3">
-        <v>0.2732811768830042</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P3">
-        <v>0.3358411994729184</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q3">
-        <v>0.1937483988755556</v>
+        <v>0.1937483988755555</v>
       </c>
       <c r="R3">
         <v>1.74373558988</v>
       </c>
       <c r="S3">
-        <v>0.00300181294972724</v>
+        <v>0.001651400350446391</v>
       </c>
       <c r="T3">
-        <v>0.005503265256472934</v>
+        <v>0.003249225296036121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +670,10 @@
         <v>0.19286</v>
       </c>
       <c r="I4">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J4">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01648566666666667</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N4">
-        <v>0.049457</v>
+        <v>0.014572</v>
       </c>
       <c r="O4">
-        <v>0.001494854830393808</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P4">
-        <v>0.001837059708990754</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q4">
-        <v>0.001059808557777778</v>
+        <v>0.0003122617688888889</v>
       </c>
       <c r="R4">
-        <v>0.009538277020000001</v>
+        <v>0.00281035592</v>
       </c>
       <c r="S4">
-        <v>1.641999144990334E-05</v>
+        <v>2.661540418227327E-06</v>
       </c>
       <c r="T4">
-        <v>3.010299774542799E-05</v>
+        <v>5.236734054821508E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +732,10 @@
         <v>0.19286</v>
       </c>
       <c r="I5">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J5">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0507295</v>
+        <v>3.609679</v>
       </c>
       <c r="N5">
-        <v>6.101459</v>
+        <v>7.219358</v>
       </c>
       <c r="O5">
-        <v>0.2766280443193008</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P5">
-        <v>0.226636158581374</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q5">
-        <v>0.1961212304566667</v>
+        <v>0.2320542306466667</v>
       </c>
       <c r="R5">
-        <v>1.17672738274</v>
+        <v>1.39232538388</v>
       </c>
       <c r="S5">
-        <v>0.003038576074527441</v>
+        <v>0.001977897314437222</v>
       </c>
       <c r="T5">
-        <v>0.003713775734897413</v>
+        <v>0.002594417917413402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,45 +794,45 @@
         <v>0.19286</v>
       </c>
       <c r="I6">
-        <v>0.01098433848962954</v>
+        <v>0.005899579586891775</v>
       </c>
       <c r="J6">
-        <v>0.01638651024683679</v>
+        <v>0.008823342375055644</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.763754333333333</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N6">
-        <v>5.291263</v>
+        <v>0.000111</v>
       </c>
       <c r="O6">
-        <v>0.1599302435334539</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P6">
-        <v>0.1965417649063538</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q6">
-        <v>0.1133858869088889</v>
+        <v>2.378606666666667E-06</v>
       </c>
       <c r="R6">
-        <v>1.02047298218</v>
+        <v>2.140746E-05</v>
       </c>
       <c r="S6">
-        <v>0.001756727929700343</v>
+        <v>2.027388048471269E-08</v>
       </c>
       <c r="T6">
-        <v>0.003220633644569354</v>
+        <v>3.989002745574989E-08</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -844,55 +841,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06428666666666667</v>
+        <v>10.832535</v>
       </c>
       <c r="H7">
-        <v>0.19286</v>
+        <v>21.66507</v>
       </c>
       <c r="I7">
-        <v>0.01098433848962954</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J7">
-        <v>0.01638651024683679</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07122033333333333</v>
+        <v>4.138389</v>
       </c>
       <c r="N7">
-        <v>0.213661</v>
+        <v>8.276778</v>
       </c>
       <c r="O7">
-        <v>0.006457977190625621</v>
+        <v>0.3843663898945971</v>
       </c>
       <c r="P7">
-        <v>0.00793634904023037</v>
+        <v>0.3371083667718477</v>
       </c>
       <c r="Q7">
-        <v>0.004578517828888889</v>
+        <v>44.829243686115</v>
       </c>
       <c r="R7">
-        <v>0.04120666046</v>
+        <v>179.31697474446</v>
       </c>
       <c r="S7">
-        <v>7.093660742013863E-05</v>
+        <v>0.3820987897868877</v>
       </c>
       <c r="T7">
-        <v>0.0001300490648702082</v>
+        <v>0.3341339442343239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H8">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I8">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J8">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.1122635</v>
+        <v>3.013819333333333</v>
       </c>
       <c r="N8">
-        <v>6.224527</v>
+        <v>9.041457999999999</v>
       </c>
       <c r="O8">
-        <v>0.2822077032432218</v>
+        <v>0.2799183104700584</v>
       </c>
       <c r="P8">
-        <v>0.2312074682901326</v>
+        <v>0.3682533395986042</v>
       </c>
       <c r="Q8">
-        <v>18.01467902601975</v>
+        <v>32.64730341201</v>
       </c>
       <c r="R8">
-        <v>72.05871610407901</v>
+        <v>195.88382047206</v>
       </c>
       <c r="S8">
-        <v>0.2791078383064173</v>
+        <v>0.278266910119612</v>
       </c>
       <c r="T8">
-        <v>0.2274187847418511</v>
+        <v>0.3650041143025681</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H9">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I9">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J9">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.013819333333334</v>
+        <v>0.004857333333333333</v>
       </c>
       <c r="N9">
-        <v>9.041458</v>
+        <v>0.014572</v>
       </c>
       <c r="O9">
-        <v>0.2732811768830042</v>
+        <v>0.0004511406921505018</v>
       </c>
       <c r="P9">
-        <v>0.3358411994729184</v>
+        <v>0.0005935091071186595</v>
       </c>
       <c r="Q9">
-        <v>17.444855788211</v>
+        <v>0.05261723334</v>
       </c>
       <c r="R9">
-        <v>104.669134729266</v>
+        <v>0.31570340004</v>
       </c>
       <c r="S9">
-        <v>0.270279363933277</v>
+        <v>0.0004484791517322745</v>
       </c>
       <c r="T9">
-        <v>0.3303379342164454</v>
+        <v>0.000588272373063838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H10">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I10">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J10">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01648566666666667</v>
+        <v>3.609679</v>
       </c>
       <c r="N10">
-        <v>0.049457</v>
+        <v>7.219358</v>
       </c>
       <c r="O10">
-        <v>0.001494854830393808</v>
+        <v>0.3352607224473918</v>
       </c>
       <c r="P10">
-        <v>0.001837059708990754</v>
+        <v>0.2940402635568179</v>
       </c>
       <c r="Q10">
-        <v>0.0954237947815</v>
+        <v>39.101974106265</v>
       </c>
       <c r="R10">
-        <v>0.572542768689</v>
+        <v>156.40789642506</v>
       </c>
       <c r="S10">
-        <v>0.001478434838943904</v>
+        <v>0.3332828251329546</v>
       </c>
       <c r="T10">
-        <v>0.001806956711245326</v>
+        <v>0.2914458456394046</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,170 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.7882885</v>
+        <v>10.832535</v>
       </c>
       <c r="H11">
-        <v>11.576577</v>
+        <v>21.66507</v>
       </c>
       <c r="I11">
-        <v>0.9890156615103705</v>
+        <v>0.9941004204131083</v>
       </c>
       <c r="J11">
-        <v>0.9836134897531632</v>
+        <v>0.9911766576249443</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>3.0507295</v>
+        <v>3.7E-05</v>
       </c>
       <c r="N11">
-        <v>6.101459</v>
+        <v>0.000111</v>
       </c>
       <c r="O11">
-        <v>0.2766280443193008</v>
+        <v>3.436495802134621E-06</v>
       </c>
       <c r="P11">
-        <v>0.226636158581374</v>
+        <v>4.520965611458359E-06</v>
       </c>
       <c r="Q11">
-        <v>17.65850248146075</v>
+        <v>0.000400803795</v>
       </c>
       <c r="R11">
-        <v>70.634009925843</v>
+        <v>0.00240482277</v>
       </c>
       <c r="S11">
-        <v>0.2735894682447733</v>
+        <v>3.416221921649909E-06</v>
       </c>
       <c r="T11">
-        <v>0.2229223828464766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>5.7882885</v>
-      </c>
-      <c r="H12">
-        <v>11.576577</v>
-      </c>
-      <c r="I12">
-        <v>0.9890156615103705</v>
-      </c>
-      <c r="J12">
-        <v>0.9836134897531632</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.763754333333333</v>
-      </c>
-      <c r="N12">
-        <v>5.291263</v>
-      </c>
-      <c r="O12">
-        <v>0.1599302435334539</v>
-      </c>
-      <c r="P12">
-        <v>0.1965417649063538</v>
-      </c>
-      <c r="Q12">
-        <v>10.2091189244585</v>
-      </c>
-      <c r="R12">
-        <v>61.254713546751</v>
-      </c>
-      <c r="S12">
-        <v>0.1581735156037536</v>
-      </c>
-      <c r="T12">
-        <v>0.1933211312617845</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.7882885</v>
-      </c>
-      <c r="H13">
-        <v>11.576577</v>
-      </c>
-      <c r="I13">
-        <v>0.9890156615103705</v>
-      </c>
-      <c r="J13">
-        <v>0.9836134897531632</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.07122033333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.213661</v>
-      </c>
-      <c r="O13">
-        <v>0.006457977190625621</v>
-      </c>
-      <c r="P13">
-        <v>0.00793634904023037</v>
-      </c>
-      <c r="Q13">
-        <v>0.4122438363995</v>
-      </c>
-      <c r="R13">
-        <v>2.473463018397</v>
-      </c>
-      <c r="S13">
-        <v>0.006387040583205483</v>
-      </c>
-      <c r="T13">
-        <v>0.007806299975360162</v>
+        <v>4.481075584002609E-06</v>
       </c>
     </row>
   </sheetData>
